--- a/Examples/DAQ.xlsx
+++ b/Examples/DAQ.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sinus Gen" sheetId="1" r:id="rId1"/>
     <sheet name="Generate Sin by DAC" sheetId="2" r:id="rId2"/>
+    <sheet name="Sine Shift" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Time</t>
   </si>
@@ -79,6 +80,18 @@
   </si>
   <si>
     <t>deltaT * 100Hz</t>
+  </si>
+  <si>
+    <t>Value Of Sine (y)</t>
+  </si>
+  <si>
+    <t>Time (x)</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>Shifted Sine</t>
   </si>
 </sst>
 </file>
@@ -1781,6 +1794,438 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sine Shift'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value Of Sine (y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sine Shift'!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38268343236508978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92387953251128674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92387953251128674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70710678118654757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38268343236508989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.22514845490862E-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.38268343236508967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.92387953251128652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.92387953251128663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.70710678118654768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.38268343236509039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A91-4889-A1BB-A041151AA417}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sine Shift'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shifted Sine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sine Shift'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.22514845490862E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.38268343236508967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.92387953251128652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.92387953251128663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.70710678118654768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38268343236509039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38268343236508995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.70710678118654735</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92387953251128652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92387953251128674</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70710678118654835</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3826834323650905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.67544536472586E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A91-4889-A1BB-A041151AA417}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="461272831"/>
+        <c:axId val="461273663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="461272831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461273663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="461273663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461272831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1861,6 +2306,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2874,6 +3359,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2946,6 +3947,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3229,7 +4265,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4171,7 +5207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -5390,4 +6426,331 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A2/16</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f xml:space="preserve"> SIN(2*PI()*B2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f xml:space="preserve"> SIN(2*PI()*B2+$F$1)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B18" si="0">A3/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C18" si="1" xml:space="preserve"> SIN(2*PI()*B3)</f>
+        <v>0.38268343236508978</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D18" si="2" xml:space="preserve"> SIN(2*PI()*B3+$F$1)</f>
+        <v>-0.38268343236508967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>-0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>-0.92387953251128652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>-0.92387953251128663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>-0.70710678118654768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508989</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-0.38268343236509039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-0.38268343236508967</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.38268343236508995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-0.92387953251128652</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.92387953251128652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>-0.92387953251128663</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.92387953251128674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>-0.38268343236509039</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.3826834323650905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>3.67544536472586E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Examples/DAQ.xlsx
+++ b/Examples/DAQ.xlsx
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +157,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -183,7 +193,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1075,7 +1084,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1727,7 +1735,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3968,16 +3975,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6433,7 +6440,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6452,10 +6459,10 @@
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="9">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>

--- a/Examples/DAQ.xlsx
+++ b/Examples/DAQ.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@@@!ProjectS\KonvolucioApp\Knv\Knv.Instruments\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@@@!ProjectS\KonvolucioApp\Knv\Knv.Instr\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sinus Gen" sheetId="1" r:id="rId1"/>
     <sheet name="Generate Sin by DAC" sheetId="2" r:id="rId2"/>
     <sheet name="Sine Shift" sheetId="3" r:id="rId3"/>
+    <sheet name="CAN Bus Levles" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Time</t>
   </si>
@@ -93,6 +94,18 @@
   <si>
     <t>Shifted Sine</t>
   </si>
+  <si>
+    <t>bit/s</t>
+  </si>
+  <si>
+    <t>CAN bus Speed</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>Total length of message</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -193,6 +207,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1084,6 +1099,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1735,6 +1751,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4006,6 +4023,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="466725"/>
+          <a:ext cx="4400000" cy="2714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Kép 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8277225" y="3562350"/>
+          <a:ext cx="5162550" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
@@ -4271,7 +4386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -6439,7 +6554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6760,4 +6875,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10">
+        <v>500000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f xml:space="preserve"> (1/C2)*C3</f>
+        <v>1.92E-4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Examples/DAQ.xlsx
+++ b/Examples/DAQ.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@@@!ProjectS\KonvolucioApp\Knv\Knv.Instr\Examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sinus Gen" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Generate Sin by DAC" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sine Shift" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CAN Bus Levles" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sinus Gen" sheetId="1" r:id="rId1"/>
+    <sheet name="Generate Sin by DAC" sheetId="2" r:id="rId2"/>
+    <sheet name="Sine Shift" sheetId="3" r:id="rId3"/>
+    <sheet name="CAN Bus Levles" sheetId="4" r:id="rId4"/>
+    <sheet name="DAQ kártyák" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,137 +28,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
-    <t xml:space="preserve">Time</t>
+    <t>Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Value of sin</t>
+    <t>Value of sin</t>
   </si>
   <si>
-    <t xml:space="preserve">Signal Freq</t>
+    <t>Signal Freq</t>
   </si>
   <si>
-    <t xml:space="preserve">f</t>
+    <t>f</t>
   </si>
   <si>
-    <t xml:space="preserve">Hz</t>
+    <t>Hz</t>
   </si>
   <si>
-    <t xml:space="preserve">Samples</t>
+    <t>Samples</t>
   </si>
   <si>
-    <t xml:space="preserve">Value of Sinus</t>
+    <t>Value of Sinus</t>
   </si>
   <si>
-    <t xml:space="preserve">deltaT * 100Hz</t>
+    <t>deltaT * 100Hz</t>
   </si>
   <si>
-    <t xml:space="preserve">Amplitude</t>
+    <t>Amplitude</t>
   </si>
   <si>
-    <t xml:space="preserve">U</t>
+    <t>U</t>
   </si>
   <si>
-    <t xml:space="preserve">Vpp</t>
+    <t>Vpp</t>
   </si>
   <si>
-    <t xml:space="preserve">Smples</t>
+    <t>Smples</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
+    <t>S</t>
   </si>
   <si>
     <t xml:space="preserve">DAC Sampling Freq </t>
   </si>
   <si>
-    <t xml:space="preserve">fs</t>
+    <t>fs</t>
   </si>
   <si>
-    <t xml:space="preserve">deltaT</t>
+    <t>deltaT</t>
   </si>
   <si>
-    <t xml:space="preserve">ts</t>
+    <t>ts</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
+    <t>s</t>
   </si>
   <si>
-    <t xml:space="preserve">Time (x)</t>
+    <t>Time (x)</t>
   </si>
   <si>
-    <t xml:space="preserve">Value Of Sine (y)</t>
+    <t>Value Of Sine (y)</t>
   </si>
   <si>
-    <t xml:space="preserve">Shifted Sine</t>
+    <t>Shifted Sine</t>
   </si>
   <si>
-    <t xml:space="preserve">shift</t>
+    <t>shift</t>
   </si>
   <si>
-    <t xml:space="preserve">CAN bus Speed</t>
+    <t>CAN bus Speed</t>
   </si>
   <si>
-    <t xml:space="preserve">bit/s</t>
+    <t>bit/s</t>
   </si>
   <si>
-    <t xml:space="preserve">bits</t>
+    <t>bits</t>
   </si>
   <si>
-    <t xml:space="preserve">Total length of message</t>
+    <t>Total length of message</t>
   </si>
   <si>
-    <t xml:space="preserve">PCI6353</t>
+    <t>PCI-6353</t>
   </si>
   <si>
-    <t xml:space="preserve">AI OnBoard Sampling Clock RSE/NRES 1.4MHz</t>
+    <t>PXI-6366</t>
+  </si>
+  <si>
+    <t>AI OnBoard Sampling Clock RSE/NRES 1.4MHz
+APFI0 - Támogatja a Analog Triggert (igazából egy egy csatlakozóján van egy…)
+1x APFI -Analog Trigger 10K0 input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8AI diff &amp; single, 2AO, 24 DIO DAQ
+1x APFI0 -Analog Triggert 10K0 input </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -178,7 +160,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -186,85 +168,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -323,15 +258,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -340,7 +293,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -348,7 +301,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -369,6 +322,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -387,9 +341,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:noFill/>
             </a:ln>
@@ -399,23 +350,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -424,8 +383,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -436,7 +396,7 @@
             <c:numRef>
               <c:f>'Sinus Gen'!$A$2:$A$101</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -460,7 +420,7 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.08</c:v>
@@ -481,7 +441,7 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.15</c:v>
@@ -523,10 +483,10 @@
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.29</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.3</c:v>
@@ -604,16 +564,16 @@
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.56</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.57</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.58</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.59</c:v>
@@ -745,313 +705,326 @@
             <c:numRef>
               <c:f>'Sinus Gen'!$B$2:$B$101</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0627905195293134</c:v>
+                  <c:v>6.2790519529313374E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.125333233564304</c:v>
+                  <c:v>0.12533323356430426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.187381314585725</c:v>
+                  <c:v>0.1873813145857246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.248689887164855</c:v>
+                  <c:v>0.24868988716485479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.309016994374947</c:v>
+                  <c:v>0.3090169943749474</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.368124552684678</c:v>
+                  <c:v>0.36812455268467792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.425779291565073</c:v>
+                  <c:v>0.42577929156507272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.481753674101715</c:v>
+                  <c:v>0.48175367410171532</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.535826794978997</c:v>
+                  <c:v>0.53582679497899666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.587785252292473</c:v>
+                  <c:v>0.58778525229247314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.63742398974869</c:v>
+                  <c:v>0.63742398974868963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.684547105928689</c:v>
+                  <c:v>0.68454710592868862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.728968627421412</c:v>
+                  <c:v>0.72896862742141155</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.770513242775789</c:v>
+                  <c:v>0.77051324277578925</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.809016994374948</c:v>
+                  <c:v>0.80901699437494745</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.844327925502015</c:v>
+                  <c:v>0.84432792550201508</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.876306680043864</c:v>
+                  <c:v>0.87630668004386369</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90482705246602</c:v>
+                  <c:v>0.90482705246601958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.929776485888251</c:v>
+                  <c:v>0.92977648588825135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.951056516295154</c:v>
+                  <c:v>0.95105651629515353</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.968583161128631</c:v>
+                  <c:v>0.96858316112863108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.982287250728689</c:v>
+                  <c:v>0.98228725072868861</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.992114701314478</c:v>
+                  <c:v>0.99211470131447788</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.998026728428272</c:v>
+                  <c:v>0.99802672842827156</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.998026728428272</c:v>
+                  <c:v>0.99802672842827156</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.992114701314478</c:v>
+                  <c:v>0.99211470131447776</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.982287250728689</c:v>
+                  <c:v>0.98228725072868861</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.968583161128631</c:v>
+                  <c:v>0.96858316112863119</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.951056516295154</c:v>
+                  <c:v>0.95105651629515364</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.929776485888252</c:v>
+                  <c:v>0.92977648588825135</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.90482705246602</c:v>
+                  <c:v>0.90482705246601947</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.876306680043864</c:v>
+                  <c:v>0.87630668004386347</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.844327925502015</c:v>
+                  <c:v>0.84432792550201496</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.809016994374948</c:v>
+                  <c:v>0.80901699437494745</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.770513242775789</c:v>
+                  <c:v>0.77051324277578925</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.728968627421411</c:v>
+                  <c:v>0.72896862742141144</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.684547105928689</c:v>
+                  <c:v>0.68454710592868884</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.63742398974869</c:v>
+                  <c:v>0.63742398974868986</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.587785252292473</c:v>
+                  <c:v>0.58778525229247325</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.535826794978997</c:v>
+                  <c:v>0.53582679497899699</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.481753674101716</c:v>
+                  <c:v>0.4817536741017156</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.425779291565073</c:v>
+                  <c:v>0.42577929156507288</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.368124552684678</c:v>
+                  <c:v>0.36812455268467814</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.309016994374948</c:v>
+                  <c:v>0.30901699437494751</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.248689887164855</c:v>
+                  <c:v>0.24868988716485482</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.187381314585725</c:v>
+                  <c:v>0.18738131458572502</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.125333233564305</c:v>
+                  <c:v>0.12533323356430454</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0627905195293136</c:v>
+                  <c:v>6.2790519529313582E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.22464679914735E-016</c:v>
+                  <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.0627905195293134</c:v>
+                  <c:v>-6.2790519529313346E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.125333233564304</c:v>
+                  <c:v>-0.12533323356430429</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.187381314585725</c:v>
+                  <c:v>-0.18738131458572477</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.248689887164855</c:v>
+                  <c:v>-0.24868988716485502</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.309016994374948</c:v>
+                  <c:v>-0.30901699437494773</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.368124552684678</c:v>
+                  <c:v>-0.36812455268467831</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.425779291565072</c:v>
+                  <c:v>-0.42577929156507227</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.481753674101715</c:v>
+                  <c:v>-0.48175367410171499</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.535826794978996</c:v>
+                  <c:v>-0.53582679497899643</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.587785252292473</c:v>
+                  <c:v>-0.58778525229247303</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.63742398974869</c:v>
+                  <c:v>-0.63742398974868963</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.684547105928689</c:v>
+                  <c:v>-0.68454710592868873</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.728968627421411</c:v>
+                  <c:v>-0.72896862742141133</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.770513242775789</c:v>
+                  <c:v>-0.77051324277578936</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.809016994374947</c:v>
+                  <c:v>-0.80901699437494734</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.844327925502015</c:v>
+                  <c:v>-0.8443279255020153</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.876306680043864</c:v>
+                  <c:v>-0.87630668004386358</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.90482705246602</c:v>
+                  <c:v>-0.9048270524660198</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.929776485888251</c:v>
+                  <c:v>-0.92977648588825113</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.951056516295154</c:v>
+                  <c:v>-0.95105651629515353</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.968583161128631</c:v>
+                  <c:v>-0.96858316112863097</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.982287250728689</c:v>
+                  <c:v>-0.98228725072868872</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.992114701314478</c:v>
+                  <c:v>-0.99211470131447776</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.998026728428272</c:v>
+                  <c:v>-0.99802672842827156</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.998026728428272</c:v>
+                  <c:v>-0.99802672842827156</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.992114701314478</c:v>
+                  <c:v>-0.99211470131447788</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.982287250728689</c:v>
+                  <c:v>-0.98228725072868872</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.968583161128631</c:v>
+                  <c:v>-0.96858316112863108</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.951056516295154</c:v>
+                  <c:v>-0.95105651629515364</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.929776485888251</c:v>
+                  <c:v>-0.92977648588825124</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.90482705246602</c:v>
+                  <c:v>-0.90482705246601991</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.876306680043864</c:v>
+                  <c:v>-0.87630668004386381</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.844327925502016</c:v>
+                  <c:v>-0.84432792550201552</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.809016994374948</c:v>
+                  <c:v>-0.80901699437494756</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.77051324277579</c:v>
+                  <c:v>-0.77051324277578959</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.728968627421412</c:v>
+                  <c:v>-0.72896862742141155</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.684547105928689</c:v>
+                  <c:v>-0.68454710592868895</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.63742398974869</c:v>
+                  <c:v>-0.63742398974868963</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.587785252292473</c:v>
+                  <c:v>-0.58778525229247336</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.535826794978996</c:v>
+                  <c:v>-0.53582679497899632</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.481753674101715</c:v>
+                  <c:v>-0.48175367410171532</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.425779291565072</c:v>
+                  <c:v>-0.42577929156507222</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.368124552684679</c:v>
+                  <c:v>-0.3681245526846787</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.309016994374948</c:v>
+                  <c:v>-0.30901699437494762</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.248689887164855</c:v>
+                  <c:v>-0.24868988716485535</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.187381314585725</c:v>
+                  <c:v>-0.18738131458572468</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.125333233564305</c:v>
+                  <c:v>-0.12533323356430465</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.0627905195293133</c:v>
+                  <c:v>-6.2790519529313263E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8411-4636-B380-F477D0A428F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="89778210"/>
         <c:axId val="64933568"/>
       </c:scatterChart>
@@ -1066,7 +1039,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1079,7 +1052,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1089,13 +1062,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="64933568"/>
@@ -1113,7 +1087,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1126,7 +1100,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1136,13 +1110,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="89778210"/>
@@ -1158,25 +1133,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1185,7 +1168,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1193,7 +1176,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1214,6 +1197,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1221,9 +1205,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:noFill/>
             </a:ln>
@@ -1233,23 +1214,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1258,8 +1247,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1272,210 +1262,215 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00015625</c:v>
+                  <c:v>1.5625E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0003125</c:v>
+                  <c:v>3.1250000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00046875</c:v>
+                  <c:v>4.6874999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000625</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00078125</c:v>
+                  <c:v>7.8125000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0009375</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00109375</c:v>
+                  <c:v>1.0937500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00125</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00140625</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00171875</c:v>
+                  <c:v>1.71875E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001875</c:v>
+                  <c:v>1.8749999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00203125</c:v>
+                  <c:v>2.0312500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0021875</c:v>
+                  <c:v>2.1875000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00234375</c:v>
+                  <c:v>2.3437499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0025</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00265625</c:v>
+                  <c:v>2.6562500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0028125</c:v>
+                  <c:v>2.8124999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00296875</c:v>
+                  <c:v>2.96875E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1250000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00328125</c:v>
+                  <c:v>3.2812499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0034375</c:v>
+                  <c:v>3.4375E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00359375</c:v>
+                  <c:v>3.5937500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00375</c:v>
+                  <c:v>3.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.00390625</c:v>
+                  <c:v>3.90625E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0040625</c:v>
+                  <c:v>4.0625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00421875</c:v>
+                  <c:v>4.2187500000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.004375</c:v>
+                  <c:v>4.3750000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00453125</c:v>
+                  <c:v>4.5312499999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0046875</c:v>
+                  <c:v>4.6874999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00484375</c:v>
+                  <c:v>4.84375E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00515625</c:v>
+                  <c:v>5.1562500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0053125</c:v>
+                  <c:v>5.3125000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.00546875</c:v>
+                  <c:v>5.4687500000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.005625</c:v>
+                  <c:v>5.6249999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00578125</c:v>
+                  <c:v>5.7812499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0059375</c:v>
+                  <c:v>5.9375000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.00609375</c:v>
+                  <c:v>6.0937500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.00625</c:v>
+                  <c:v>6.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.00640625</c:v>
+                  <c:v>6.4062500000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0065625</c:v>
+                  <c:v>6.5624999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.00671875</c:v>
+                  <c:v>6.7187499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.006875</c:v>
+                  <c:v>6.875E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.00703125</c:v>
+                  <c:v>7.0312500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0071875</c:v>
+                  <c:v>7.1875000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.00734375</c:v>
+                  <c:v>7.3437500000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0075</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.00765625</c:v>
+                  <c:v>7.6562499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0078125</c:v>
+                  <c:v>7.8125E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.00796875</c:v>
+                  <c:v>7.9687500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.008125</c:v>
+                  <c:v>8.1250000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.00828125</c:v>
+                  <c:v>8.2812500000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0084375</c:v>
+                  <c:v>8.4375000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.00859375</c:v>
+                  <c:v>8.5937500000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.00875</c:v>
+                  <c:v>8.7500000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.00890625</c:v>
+                  <c:v>8.906250000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0090625</c:v>
+                  <c:v>9.0624999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.00921875</c:v>
+                  <c:v>9.2187499999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.009375</c:v>
+                  <c:v>9.3749999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.00953125</c:v>
+                  <c:v>9.5312499999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0096875</c:v>
+                  <c:v>9.6874999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.00984375</c:v>
+                  <c:v>9.8437500000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03E4-4267-B62C-D29B98E3C10A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:noFill/>
             </a:ln>
@@ -1485,23 +1480,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1510,8 +1513,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1524,203 +1528,219 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0980171403295606</c:v>
+                  <c:v>9.8017140329560618E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.195090322016128</c:v>
+                  <c:v>0.19509032201612828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.290284677254462</c:v>
+                  <c:v>0.29028467725446233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38268343236509</c:v>
+                  <c:v>0.38268343236508978</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.471396736825998</c:v>
+                  <c:v>0.47139673682599764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.555570233019602</c:v>
+                  <c:v>0.55557023301960218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.634393284163646</c:v>
+                  <c:v>0.6343932841636456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.707106781186548</c:v>
+                  <c:v>0.70710678118654757</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.773010453362737</c:v>
+                  <c:v>0.77301045336273699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.831469612302545</c:v>
+                  <c:v>0.83146961230254524</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.881921264348355</c:v>
+                  <c:v>0.88192126434835494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.923879532511287</c:v>
+                  <c:v>0.92387953251128674</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.956940335732209</c:v>
+                  <c:v>0.95694033573220894</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98078528040323</c:v>
+                  <c:v>0.98078528040323043</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.995184726672197</c:v>
+                  <c:v>0.99518472667219682</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.995184726672197</c:v>
+                  <c:v>0.99518472667219682</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98078528040323</c:v>
+                  <c:v>0.98078528040323043</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.956940335732209</c:v>
+                  <c:v>0.95694033573220894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.923879532511287</c:v>
+                  <c:v>0.92387953251128674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.881921264348355</c:v>
+                  <c:v>0.88192126434835527</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.831469612302545</c:v>
+                  <c:v>0.83146961230254546</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.773010453362737</c:v>
+                  <c:v>0.7730104533627371</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.707106781186548</c:v>
+                  <c:v>0.70710678118654757</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.634393284163646</c:v>
+                  <c:v>0.63439328416364549</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.555570233019602</c:v>
+                  <c:v>0.55557023301960218</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.471396736825997</c:v>
+                  <c:v>0.47139673682599742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.382683432365089</c:v>
+                  <c:v>0.38268343236508945</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.290284677254463</c:v>
+                  <c:v>0.29028467725446278</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.195090322016129</c:v>
+                  <c:v>0.19509032201612861</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0980171403295604</c:v>
+                  <c:v>9.8017140329560395E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.21624529935327E-016</c:v>
+                  <c:v>-3.2157436435920062E-16</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.098017140329561</c:v>
+                  <c:v>-9.8017140329561034E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.195090322016129</c:v>
+                  <c:v>-0.1950903220161288</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.290284677254462</c:v>
+                  <c:v>-0.29028467725446211</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.38268343236509</c:v>
+                  <c:v>-0.38268343236508967</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.471396736825998</c:v>
+                  <c:v>-0.47139673682599764</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.555570233019602</c:v>
+                  <c:v>-0.55557023301960196</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.634393284163645</c:v>
+                  <c:v>-0.63439328416364527</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.707106781186548</c:v>
+                  <c:v>-0.70710678118654746</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.773010453362737</c:v>
+                  <c:v>-0.77301045336273722</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.831469612302545</c:v>
+                  <c:v>-0.83146961230254479</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.881921264348355</c:v>
+                  <c:v>-0.88192126434835494</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.923879532511287</c:v>
+                  <c:v>-0.92387953251128652</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.956940335732209</c:v>
+                  <c:v>-0.95694033573220882</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.98078528040323</c:v>
+                  <c:v>-0.98078528040323032</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.995184726672197</c:v>
+                  <c:v>-0.99518472667219693</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.995184726672197</c:v>
+                  <c:v>-0.99518472667219693</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.98078528040323</c:v>
+                  <c:v>-0.98078528040323043</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.956940335732209</c:v>
+                  <c:v>-0.95694033573220894</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.923879532511287</c:v>
+                  <c:v>-0.92387953251128663</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.881921264348355</c:v>
+                  <c:v>-0.88192126434835505</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.831469612302545</c:v>
+                  <c:v>-0.83146961230254501</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.773010453362737</c:v>
+                  <c:v>-0.77301045336273688</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.707106781186547</c:v>
+                  <c:v>-0.70710678118654702</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.634393284163645</c:v>
+                  <c:v>-0.63439328416364527</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.555570233019603</c:v>
+                  <c:v>-0.55557023301960295</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.471396736825998</c:v>
+                  <c:v>-0.47139673682599792</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.38268343236509</c:v>
+                  <c:v>-0.38268343236509039</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.290284677254463</c:v>
+                  <c:v>-0.2902846772544625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.195090322016128</c:v>
+                  <c:v>-0.19509032201612786</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.0980171403295614</c:v>
+                  <c:v>-9.8017140329561395E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03E4-4267-B62C-D29B98E3C10A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="82690310"/>
         <c:axId val="82833330"/>
       </c:scatterChart>
@@ -1735,7 +1755,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1748,7 +1768,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1758,13 +1778,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82833330"/>
@@ -1782,7 +1803,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1795,7 +1816,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1805,13 +1826,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82690310"/>
@@ -1839,37 +1861,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1878,7 +1909,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1886,7 +1917,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1907,6 +1938,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1925,12 +1957,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1939,18 +1968,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1959,8 +1996,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1977,57 +2015,62 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38268343236509</c:v>
+                  <c:v>0.38268343236508978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.707106781186548</c:v>
+                  <c:v>0.70710678118654746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.923879532511287</c:v>
+                  <c:v>0.92387953251128674</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.923879532511287</c:v>
+                  <c:v>0.92387953251128674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.707106781186548</c:v>
+                  <c:v>0.70710678118654757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38268343236509</c:v>
+                  <c:v>0.38268343236508989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.22464679914735E-016</c:v>
+                  <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.38268343236509</c:v>
+                  <c:v>-0.38268343236508967</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.707106781186548</c:v>
+                  <c:v>-0.70710678118654746</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.923879532511287</c:v>
+                  <c:v>-0.92387953251128652</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.923879532511287</c:v>
+                  <c:v>-0.92387953251128663</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.707106781186548</c:v>
+                  <c:v>-0.70710678118654768</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.38268343236509</c:v>
+                  <c:v>-0.38268343236509039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.44929359829471E-016</c:v>
+                  <c:v>-2.45029690981724E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6677-4701-899E-C522FA00FF8B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2044,12 +2087,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
+            <a:ln w="28440" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2058,18 +2098,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2078,8 +2126,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2093,61 +2142,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.22464679914735E-016</c:v>
+                  <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.38268343236509</c:v>
+                  <c:v>-0.38268343236508967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.707106781186548</c:v>
+                  <c:v>-0.70710678118654746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.923879532511287</c:v>
+                  <c:v>-0.92387953251128652</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.923879532511287</c:v>
+                  <c:v>-0.92387953251128663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.707106781186548</c:v>
+                  <c:v>-0.70710678118654768</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.38268343236509</c:v>
+                  <c:v>-0.38268343236509039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.44929359829471E-016</c:v>
+                  <c:v>-2.45029690981724E-16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38268343236509</c:v>
+                  <c:v>0.38268343236508995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.707106781186547</c:v>
+                  <c:v>0.70710678118654735</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.923879532511287</c:v>
+                  <c:v>0.92387953251128652</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.923879532511287</c:v>
+                  <c:v>0.92387953251128674</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.707106781186548</c:v>
+                  <c:v>0.70710678118654835</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.382683432365091</c:v>
+                  <c:v>0.3826834323650905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.67394039744206E-016</c:v>
+                  <c:v>3.67544536472586E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6677-4701-899E-C522FA00FF8B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -2155,7 +2217,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="28867596"/>
         <c:axId val="16379775"/>
       </c:lineChart>
@@ -2173,7 +2235,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2183,13 +2245,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16379775"/>
@@ -2210,7 +2273,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2230,13 +2293,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="28867596"/>
@@ -2264,35 +2328,42 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2306,14 +2377,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagram 1"/>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2437200" y="414360"/>
-        <a:ext cx="4641120" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2327,7 +2398,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -2341,14 +2412,14 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Diagram 1"/>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9997200" y="57240"/>
-        <a:ext cx="4584960" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2362,7 +2433,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2376,14 +2447,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagram 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5256720" y="395280"/>
-        <a:ext cx="4584960" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2397,7 +2468,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -2413,11 +2484,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Kép 1" descr=""/>
+        <xdr:cNvPr id="3" name="Kép 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2450,11 +2521,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Kép 2" descr=""/>
+        <xdr:cNvPr id="4" name="Kép 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2475,26 +2546,284 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2504,965 +2833,957 @@
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A2)</f>
+      <c r="B2" s="4">
+        <f t="shared" ref="B2:B33" si="0">SIN(2*PI()*A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0.01</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A3)</f>
-        <v>0.0627905195293134</v>
+      <c r="B3" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2790519529313374E-2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0.02</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A4)</f>
-        <v>0.125333233564304</v>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12533323356430426</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0.03</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A5)</f>
-        <v>0.187381314585725</v>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1873813145857246</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0.04</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A6)</f>
-        <v>0.248689887164855</v>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24868988716485479</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0.05</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A7)</f>
-        <v>0.309016994374947</v>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3090169943749474</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0.06</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A8)</f>
-        <v>0.368124552684678</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A9)</f>
-        <v>0.425779291565073</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36812455268467792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.42577929156507272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>0.08</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A10)</f>
-        <v>0.481753674101715</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48175367410171532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>0.09</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A11)</f>
-        <v>0.535826794978997</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.53582679497899666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>0.1</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A12)</f>
-        <v>0.587785252292473</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58778525229247314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>0.11</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A13)</f>
-        <v>0.63742398974869</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.63742398974868963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>0.12</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A14)</f>
-        <v>0.684547105928689</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68454710592868862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>0.13</v>
       </c>
-      <c r="B15" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A15)</f>
-        <v>0.728968627421412</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A16)</f>
-        <v>0.770513242775789</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72896862742141155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77051324277578925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>0.15</v>
       </c>
-      <c r="B17" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A17)</f>
-        <v>0.809016994374948</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.80901699437494745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>0.16</v>
       </c>
-      <c r="B18" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A18)</f>
-        <v>0.844327925502015</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84432792550201508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>0.17</v>
       </c>
-      <c r="B19" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A19)</f>
-        <v>0.876306680043864</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.87630668004386369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>0.18</v>
       </c>
-      <c r="B20" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A20)</f>
-        <v>0.90482705246602</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90482705246601958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>0.19</v>
       </c>
-      <c r="B21" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A21)</f>
-        <v>0.929776485888251</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92977648588825135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>0.2</v>
       </c>
-      <c r="B22" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A22)</f>
-        <v>0.951056516295154</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.95105651629515353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>0.21</v>
       </c>
-      <c r="B23" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A23)</f>
-        <v>0.968583161128631</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.96858316112863108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>0.22</v>
       </c>
-      <c r="B24" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A24)</f>
-        <v>0.982287250728689</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.98228725072868861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>0.23</v>
       </c>
-      <c r="B25" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A25)</f>
-        <v>0.992114701314478</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99211470131447788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>0.24</v>
       </c>
-      <c r="B26" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A26)</f>
-        <v>0.998026728428272</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99802672842827156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>0.25</v>
       </c>
-      <c r="B27" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A27)</f>
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>0.26</v>
       </c>
-      <c r="B28" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A28)</f>
-        <v>0.998026728428272</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99802672842827156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>0.27</v>
       </c>
-      <c r="B29" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A29)</f>
-        <v>0.992114701314478</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="B30" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A30)</f>
-        <v>0.982287250728689</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="B31" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A31)</f>
-        <v>0.968583161128631</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99211470131447776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.98228725072868861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.96858316112863119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>0.3</v>
       </c>
-      <c r="B32" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A32)</f>
-        <v>0.951056516295154</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.95105651629515364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>0.31</v>
       </c>
-      <c r="B33" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A33)</f>
-        <v>0.929776485888252</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92977648588825135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>0.32</v>
       </c>
-      <c r="B34" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A34)</f>
-        <v>0.90482705246602</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="B34" s="4">
+        <f t="shared" ref="B34:B65" si="1">SIN(2*PI()*A34)</f>
+        <v>0.90482705246601947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>0.33</v>
       </c>
-      <c r="B35" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A35)</f>
-        <v>0.876306680043864</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="B35" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87630668004386347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>0.34</v>
       </c>
-      <c r="B36" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A36)</f>
-        <v>0.844327925502015</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="B36" s="4">
+        <f t="shared" si="1"/>
+        <v>0.84432792550201496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>0.35</v>
       </c>
-      <c r="B37" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A37)</f>
-        <v>0.809016994374948</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="B37" s="4">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494745</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>0.36</v>
       </c>
-      <c r="B38" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A38)</f>
-        <v>0.770513242775789</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="B38" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77051324277578925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>0.37</v>
       </c>
-      <c r="B39" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A39)</f>
-        <v>0.728968627421411</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="B39" s="4">
+        <f t="shared" si="1"/>
+        <v>0.72896862742141144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>0.38</v>
       </c>
-      <c r="B40" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A40)</f>
-        <v>0.684547105928689</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="B40" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68454710592868884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>0.39</v>
       </c>
-      <c r="B41" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A41)</f>
-        <v>0.63742398974869</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="B41" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63742398974868986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>0.4</v>
       </c>
-      <c r="B42" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A42)</f>
-        <v>0.587785252292473</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="B42" s="4">
+        <f t="shared" si="1"/>
+        <v>0.58778525229247325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>0.41</v>
       </c>
-      <c r="B43" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A43)</f>
-        <v>0.535826794978997</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="B43" s="4">
+        <f t="shared" si="1"/>
+        <v>0.53582679497899699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>0.42</v>
       </c>
-      <c r="B44" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A44)</f>
-        <v>0.481753674101716</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="B44" s="4">
+        <f t="shared" si="1"/>
+        <v>0.4817536741017156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>0.43</v>
       </c>
-      <c r="B45" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A45)</f>
-        <v>0.425779291565073</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="B45" s="4">
+        <f t="shared" si="1"/>
+        <v>0.42577929156507288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>0.44</v>
       </c>
-      <c r="B46" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A46)</f>
-        <v>0.368124552684678</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="B46" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36812455268467814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>0.45</v>
       </c>
-      <c r="B47" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A47)</f>
-        <v>0.309016994374948</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="B47" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30901699437494751</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>0.46</v>
       </c>
-      <c r="B48" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A48)</f>
-        <v>0.248689887164855</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="B48" s="4">
+        <f t="shared" si="1"/>
+        <v>0.24868988716485482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>0.47</v>
       </c>
-      <c r="B49" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A49)</f>
-        <v>0.187381314585725</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="B49" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18738131458572502</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>0.48</v>
       </c>
-      <c r="B50" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A50)</f>
-        <v>0.125333233564305</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="B50" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12533323356430454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>0.49</v>
       </c>
-      <c r="B51" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A51)</f>
-        <v>0.0627905195293136</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="B51" s="4">
+        <f t="shared" si="1"/>
+        <v>6.2790519529313582E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>0.5</v>
       </c>
-      <c r="B52" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A52)</f>
-        <v>1.22464679914735E-016</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="B52" s="4">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>0.51</v>
       </c>
-      <c r="B53" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A53)</f>
-        <v>-0.0627905195293134</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="B53" s="4">
+        <f t="shared" si="1"/>
+        <v>-6.2790519529313346E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>0.52</v>
       </c>
-      <c r="B54" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A54)</f>
-        <v>-0.125333233564304</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="B54" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.12533323356430429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>0.53</v>
       </c>
-      <c r="B55" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A55)</f>
-        <v>-0.187381314585725</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="B55" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.18738131458572477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>0.54</v>
       </c>
-      <c r="B56" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A56)</f>
-        <v>-0.248689887164855</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="B57" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A57)</f>
-        <v>-0.309016994374948</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="B58" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A58)</f>
-        <v>-0.368124552684678</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="B59" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A59)</f>
-        <v>-0.425779291565072</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="B60" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A60)</f>
-        <v>-0.481753674101715</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="B56" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.24868988716485502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.30901699437494773</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.36812455268467831</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.42577929156507227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B60" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.48175367410171499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>0.59</v>
       </c>
-      <c r="B61" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A61)</f>
-        <v>-0.535826794978996</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="B61" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.53582679497899643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>0.6</v>
       </c>
-      <c r="B62" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A62)</f>
-        <v>-0.587785252292473</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="B62" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.58778525229247303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>0.61</v>
       </c>
-      <c r="B63" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A63)</f>
-        <v>-0.63742398974869</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="B63" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.63742398974868963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>0.62</v>
       </c>
-      <c r="B64" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A64)</f>
-        <v>-0.684547105928689</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="B64" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.68454710592868873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>0.63</v>
       </c>
-      <c r="B65" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A65)</f>
-        <v>-0.728968627421411</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="B65" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.72896862742141133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>0.64</v>
       </c>
-      <c r="B66" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A66)</f>
-        <v>-0.770513242775789</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="B66" s="4">
+        <f t="shared" ref="B66:B97" si="2">SIN(2*PI()*A66)</f>
+        <v>-0.77051324277578936</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>0.65</v>
       </c>
-      <c r="B67" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A67)</f>
-        <v>-0.809016994374947</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="B67" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.80901699437494734</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>0.66</v>
       </c>
-      <c r="B68" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A68)</f>
-        <v>-0.844327925502015</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="B68" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.8443279255020153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>0.67</v>
       </c>
-      <c r="B69" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A69)</f>
-        <v>-0.876306680043864</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="B69" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.87630668004386358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>0.68</v>
       </c>
-      <c r="B70" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A70)</f>
-        <v>-0.90482705246602</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="B70" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.9048270524660198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>0.69</v>
       </c>
-      <c r="B71" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A71)</f>
-        <v>-0.929776485888251</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="B71" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.92977648588825113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>0.7</v>
       </c>
-      <c r="B72" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A72)</f>
-        <v>-0.951056516295154</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="B72" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.95105651629515353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>0.71</v>
       </c>
-      <c r="B73" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A73)</f>
-        <v>-0.968583161128631</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="B73" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.96858316112863097</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>0.72</v>
       </c>
-      <c r="B74" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A74)</f>
-        <v>-0.982287250728689</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="B74" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.98228725072868872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>0.73</v>
       </c>
-      <c r="B75" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A75)</f>
-        <v>-0.992114701314478</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="B75" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.99211470131447776</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>0.74</v>
       </c>
-      <c r="B76" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A76)</f>
-        <v>-0.998026728428272</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="B76" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.99802672842827156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>0.75</v>
       </c>
-      <c r="B77" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A77)</f>
+      <c r="B77" s="4">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>0.76</v>
       </c>
-      <c r="B78" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A78)</f>
-        <v>-0.998026728428272</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="B78" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.99802672842827156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>0.77</v>
       </c>
-      <c r="B79" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A79)</f>
-        <v>-0.992114701314478</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="B79" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.99211470131447788</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>0.78</v>
       </c>
-      <c r="B80" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A80)</f>
-        <v>-0.982287250728689</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="B80" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.98228725072868872</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>0.79</v>
       </c>
-      <c r="B81" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A81)</f>
-        <v>-0.968583161128631</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="B81" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.96858316112863108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>0.8</v>
       </c>
-      <c r="B82" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A82)</f>
-        <v>-0.951056516295154</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="B82" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.95105651629515364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>0.81</v>
       </c>
-      <c r="B83" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A83)</f>
-        <v>-0.929776485888251</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="B83" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.92977648588825124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>0.82</v>
       </c>
-      <c r="B84" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A84)</f>
-        <v>-0.90482705246602</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="B84" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.90482705246601991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>0.83</v>
       </c>
-      <c r="B85" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A85)</f>
-        <v>-0.876306680043864</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="B85" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.87630668004386381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>0.84</v>
       </c>
-      <c r="B86" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A86)</f>
-        <v>-0.844327925502016</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="B86" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.84432792550201552</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>0.85</v>
       </c>
-      <c r="B87" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A87)</f>
-        <v>-0.809016994374948</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="B87" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.80901699437494756</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>0.86</v>
       </c>
-      <c r="B88" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A88)</f>
-        <v>-0.77051324277579</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="B88" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.77051324277578959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>0.87</v>
       </c>
-      <c r="B89" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A89)</f>
-        <v>-0.728968627421412</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="B89" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.72896862742141155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>0.88</v>
       </c>
-      <c r="B90" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A90)</f>
-        <v>-0.684547105928689</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="B90" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.68454710592868895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>0.89</v>
       </c>
-      <c r="B91" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A91)</f>
-        <v>-0.63742398974869</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="B91" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.63742398974868963</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>0.9</v>
       </c>
-      <c r="B92" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A92)</f>
-        <v>-0.587785252292473</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="B92" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.58778525229247336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>0.91</v>
       </c>
-      <c r="B93" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A93)</f>
-        <v>-0.535826794978996</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="B93" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.53582679497899632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>0.92</v>
       </c>
-      <c r="B94" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A94)</f>
-        <v>-0.481753674101715</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="B94" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.48175367410171532</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>0.93</v>
       </c>
-      <c r="B95" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A95)</f>
-        <v>-0.425779291565072</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="B95" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.42577929156507222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>0.94</v>
       </c>
-      <c r="B96" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A96)</f>
-        <v>-0.368124552684679</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="B96" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.3681245526846787</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>0.95</v>
       </c>
-      <c r="B97" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A97)</f>
-        <v>-0.309016994374948</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="B97" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.30901699437494762</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>0.96</v>
       </c>
-      <c r="B98" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A98)</f>
-        <v>-0.248689887164855</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="B98" s="4">
+        <f t="shared" ref="B98:B129" si="3">SIN(2*PI()*A98)</f>
+        <v>-0.24868988716485535</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>0.97</v>
       </c>
-      <c r="B99" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A99)</f>
-        <v>-0.187381314585725</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="B99" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.18738131458572468</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>0.98</v>
       </c>
-      <c r="B100" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A100)</f>
-        <v>-0.125333233564305</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="B100" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.12533323356430465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>0.99</v>
       </c>
-      <c r="B101" s="4" t="n">
-        <f aca="false">SIN(2*PI()*A101)</f>
-        <v>-0.0627905195293133</v>
+      <c r="B101" s="4">
+        <f t="shared" si="3"/>
+        <v>-6.2790519529313263E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.14"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1">
         <v>100</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1">
         <v>100000</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -3478,1205 +3799,1197 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <f aca="false">H2*$C$6</f>
+      <c r="I2">
+        <f t="shared" ref="I2:I33" si="0">H2*$C$6</f>
         <v>0</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I2 * 100)</f>
+      <c r="J2">
+        <f t="shared" ref="J2:J33" si="1">SIN(2*PI()*I2 * 100)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">I2*100</f>
+      <c r="K2">
+        <f t="shared" ref="K2:K33" si="2">I2*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>64</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>29</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <f aca="false">H3*$C$6</f>
-        <v>0.00015625</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I3 * 100)</f>
-        <v>0.0980171403295606</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <f aca="false">I3*100</f>
-        <v>0.015625</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="0" t="n">
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>1.5625E-4</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>9.8017140329560618E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">H4*$C$6</f>
-        <v>0.0003125</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I4 * 100)</f>
-        <v>0.195090322016128</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">I4*100</f>
-        <v>0.03125</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.19509032201612828</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <f aca="false">C3*C1</f>
+      <c r="C5" s="7">
+        <f>C3*C1</f>
         <v>6400</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <f aca="false">D3*D1</f>
+      <c r="D5" s="7">
+        <f>D3*D1</f>
         <v>2900000</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">H5*$C$6</f>
-        <v>0.00046875</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I5 * 100)</f>
-        <v>0.290284677254462</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">I5*100</f>
-        <v>0.046875</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>4.6874999999999998E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.29028467725446233</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <f aca="false">1/C5</f>
-        <v>0.00015625</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <f aca="false">1/D5</f>
-        <v>3.44827586206897E-007</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="7">
+        <f>1/C5</f>
+        <v>1.5625E-4</v>
+      </c>
+      <c r="D6" s="7">
+        <f>1/D5</f>
+        <v>3.4482758620689656E-7</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">H6*$C$6</f>
-        <v>0.000625</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I6 * 100)</f>
-        <v>0.38268343236509</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">I6*100</f>
-        <v>0.0625</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="0" t="n">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508978</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">H7*$C$6</f>
-        <v>0.00078125</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I7 * 100)</f>
-        <v>0.471396736825998</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">I7*100</f>
-        <v>0.078125</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="0" t="n">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>7.8125000000000004E-4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.47139673682599764</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">H8*$C$6</f>
-        <v>0.0009375</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I8 * 100)</f>
-        <v>0.555570233019602</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">I8*100</f>
-        <v>0.09375</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="0" t="n">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">H9*$C$6</f>
-        <v>0.00109375</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I9 * 100)</f>
-        <v>0.634393284163646</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">I9*100</f>
-        <v>0.109375</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="0" t="n">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.0937500000000001E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.6343932841636456</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0.10937500000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <f aca="false">H10*$C$6</f>
-        <v>0.00125</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I10 * 100)</f>
-        <v>0.707106781186548</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <f aca="false">I10*100</f>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="0" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">H11*$C$6</f>
-        <v>0.00140625</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I11 * 100)</f>
-        <v>0.773010453362737</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">I11*100</f>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.4062499999999999E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.77301045336273699</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
         <v>0.140625</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="0" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">H12*$C$6</f>
-        <v>0.0015625</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I12 * 100)</f>
-        <v>0.831469612302545</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">I12*100</f>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.83146961230254524</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="0" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13">
         <v>11</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <f aca="false">H13*$C$6</f>
-        <v>0.00171875</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I13 * 100)</f>
-        <v>0.881921264348355</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">I13*100</f>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1.71875E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.88192126434835494</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
         <v>0.171875</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="0" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14">
         <v>12</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <f aca="false">H14*$C$6</f>
-        <v>0.001875</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I14 * 100)</f>
-        <v>0.923879532511287</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">I14*100</f>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999999E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="0" t="n">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15">
         <v>13</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <f aca="false">H15*$C$6</f>
-        <v>0.00203125</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I15 * 100)</f>
-        <v>0.956940335732209</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">I15*100</f>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2.0312500000000001E-3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.95694033573220894</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
         <v>0.203125</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="0" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16">
         <v>14</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">H16*$C$6</f>
-        <v>0.0021875</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I16 * 100)</f>
-        <v>0.98078528040323</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">I16*100</f>
-        <v>0.21875</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="0" t="n">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>2.1875000000000002E-3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0.21875000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H17">
         <v>15</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <f aca="false">H17*$C$6</f>
-        <v>0.00234375</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I17 * 100)</f>
-        <v>0.995184726672197</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <f aca="false">I17*100</f>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.99518472667219682</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
         <v>0.234375</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="0" t="n">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H18">
         <v>16</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <f aca="false">H18*$C$6</f>
-        <v>0.0025</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I18 * 100)</f>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <f aca="false">I18*100</f>
+      <c r="K18">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="0" t="n">
+    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H19">
         <v>17</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <f aca="false">H19*$C$6</f>
-        <v>0.00265625</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I19 * 100)</f>
-        <v>0.995184726672197</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <f aca="false">I19*100</f>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>2.6562500000000002E-3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.99518472667219682</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
         <v>0.265625</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="0" t="n">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H20">
         <v>18</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <f aca="false">H20*$C$6</f>
-        <v>0.0028125</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I20 * 100)</f>
-        <v>0.98078528040323</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <f aca="false">I20*100</f>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>2.8124999999999999E-3</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.98078528040323043</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
         <v>0.28125</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="0" t="n">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H21">
         <v>19</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <f aca="false">H21*$C$6</f>
-        <v>0.00296875</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I21 * 100)</f>
-        <v>0.956940335732209</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <f aca="false">I21*100</f>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>2.96875E-3</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0.95694033573220894</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
         <v>0.296875</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="0" t="n">
+    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H22">
         <v>20</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <f aca="false">H22*$C$6</f>
-        <v>0.003125</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I22 * 100)</f>
-        <v>0.923879532511287</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <f aca="false">I22*100</f>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
         <v>0.3125</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="0" t="n">
+    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H23">
         <v>21</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <f aca="false">H23*$C$6</f>
-        <v>0.00328125</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I23 * 100)</f>
-        <v>0.881921264348355</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <f aca="false">I23*100</f>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>3.2812499999999999E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.88192126434835527</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
         <v>0.328125</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="0" t="n">
+    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H24">
         <v>22</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">H24*$C$6</f>
-        <v>0.0034375</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I24 * 100)</f>
-        <v>0.831469612302545</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <f aca="false">I24*100</f>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>3.4375E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.83146961230254546</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
         <v>0.34375</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="0" t="n">
+    <row r="25" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H25">
         <v>23</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <f aca="false">H25*$C$6</f>
-        <v>0.00359375</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I25 * 100)</f>
-        <v>0.773010453362737</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <f aca="false">I25*100</f>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>3.5937500000000002E-3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.7730104533627371</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
         <v>0.359375</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="0" t="n">
+    <row r="26" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H26">
         <v>24</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <f aca="false">H26*$C$6</f>
-        <v>0.00375</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I26 * 100)</f>
-        <v>0.707106781186548</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <f aca="false">I26*100</f>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="0" t="n">
+    <row r="27" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H27">
         <v>25</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <f aca="false">H27*$C$6</f>
-        <v>0.00390625</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I27 * 100)</f>
-        <v>0.634393284163646</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <f aca="false">I27*100</f>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.63439328416364549</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
         <v>0.390625</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="0" t="n">
+    <row r="28" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H28">
         <v>26</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">H28*$C$6</f>
-        <v>0.0040625</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I28 * 100)</f>
-        <v>0.555570233019602</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <f aca="false">I28*100</f>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>4.0625000000000001E-3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.55557023301960218</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
         <v>0.40625</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="0" t="n">
+    <row r="29" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H29">
         <v>27</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <f aca="false">H29*$C$6</f>
-        <v>0.00421875</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I29 * 100)</f>
-        <v>0.471396736825997</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <f aca="false">I29*100</f>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>4.2187500000000003E-3</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.47139673682599742</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
         <v>0.421875</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="0" t="n">
+    <row r="30" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H30">
         <v>28</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <f aca="false">H30*$C$6</f>
-        <v>0.004375</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I30 * 100)</f>
-        <v>0.382683432365089</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <f aca="false">I30*100</f>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="0" t="n">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508945</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0.43750000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H31">
         <v>29</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <f aca="false">H31*$C$6</f>
-        <v>0.00453125</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I31 * 100)</f>
-        <v>0.290284677254463</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <f aca="false">I31*100</f>
-        <v>0.453125</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="0" t="n">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>4.5312499999999997E-3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.29028467725446278</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0.45312499999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H32">
         <v>30</v>
       </c>
-      <c r="I32" s="0" t="n">
-        <f aca="false">H32*$C$6</f>
-        <v>0.0046875</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I32 * 100)</f>
-        <v>0.195090322016129</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <f aca="false">I32*100</f>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>4.6874999999999998E-3</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.19509032201612861</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
         <v>0.46875</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="0" t="n">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33">
         <v>31</v>
       </c>
-      <c r="I33" s="0" t="n">
-        <f aca="false">H33*$C$6</f>
-        <v>0.00484375</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I33 * 100)</f>
-        <v>0.0980171403295604</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <f aca="false">I33*100</f>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>4.84375E-3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>9.8017140329560395E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
         <v>0.484375</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="0" t="n">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34">
         <v>32</v>
       </c>
-      <c r="I34" s="0" t="n">
-        <f aca="false">H34*$C$6</f>
-        <v>0.005</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I34 * 100)</f>
-        <v>-3.21624529935327E-016</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <f aca="false">I34*100</f>
+      <c r="I34">
+        <f t="shared" ref="I34:I65" si="3">H34*$C$6</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J65" si="4">SIN(2*PI()*I34 * 100)</f>
+        <v>-3.2157436435920062E-16</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:K66" si="5">I34*100</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="0" t="n">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H35">
         <v>33</v>
       </c>
-      <c r="I35" s="0" t="n">
-        <f aca="false">H35*$C$6</f>
-        <v>0.00515625</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I35 * 100)</f>
-        <v>-0.098017140329561</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <f aca="false">I35*100</f>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>5.1562500000000002E-3</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>-9.8017140329561034E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
         <v>0.515625</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="0" t="n">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H36">
         <v>34</v>
       </c>
-      <c r="I36" s="0" t="n">
-        <f aca="false">H36*$C$6</f>
-        <v>0.0053125</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I36 * 100)</f>
-        <v>-0.195090322016129</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <f aca="false">I36*100</f>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>5.3125000000000004E-3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>-0.1950903220161288</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
         <v>0.53125</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="0" t="n">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H37">
         <v>35</v>
       </c>
-      <c r="I37" s="0" t="n">
-        <f aca="false">H37*$C$6</f>
-        <v>0.00546875</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I37 * 100)</f>
-        <v>-0.290284677254462</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <f aca="false">I37*100</f>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>5.4687500000000005E-3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>-0.29028467725446211</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
         <v>0.546875</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="0" t="n">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H38">
         <v>36</v>
       </c>
-      <c r="I38" s="0" t="n">
-        <f aca="false">H38*$C$6</f>
-        <v>0.005625</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I38 * 100)</f>
-        <v>-0.38268343236509</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <f aca="false">I38*100</f>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>-0.38268343236508967</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="0" t="n">
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H39">
         <v>37</v>
       </c>
-      <c r="I39" s="0" t="n">
-        <f aca="false">H39*$C$6</f>
-        <v>0.00578125</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I39 * 100)</f>
-        <v>-0.471396736825998</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <f aca="false">I39*100</f>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>5.7812499999999999E-3</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>-0.47139673682599764</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
         <v>0.578125</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="0" t="n">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H40">
         <v>38</v>
       </c>
-      <c r="I40" s="0" t="n">
-        <f aca="false">H40*$C$6</f>
-        <v>0.0059375</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I40 * 100)</f>
-        <v>-0.555570233019602</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <f aca="false">I40*100</f>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>5.9375000000000001E-3</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>-0.55557023301960196</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
         <v>0.59375</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="0" t="n">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H41">
         <v>39</v>
       </c>
-      <c r="I41" s="0" t="n">
-        <f aca="false">H41*$C$6</f>
-        <v>0.00609375</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I41 * 100)</f>
-        <v>-0.634393284163645</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <f aca="false">I41*100</f>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>6.0937500000000002E-3</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>-0.63439328416364527</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
         <v>0.609375</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="0" t="n">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H42">
         <v>40</v>
       </c>
-      <c r="I42" s="0" t="n">
-        <f aca="false">H42*$C$6</f>
-        <v>0.00625</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I42 * 100)</f>
-        <v>-0.707106781186548</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <f aca="false">I42*100</f>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="0" t="n">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H43">
         <v>41</v>
       </c>
-      <c r="I43" s="0" t="n">
-        <f aca="false">H43*$C$6</f>
-        <v>0.00640625</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I43 * 100)</f>
-        <v>-0.773010453362737</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <f aca="false">I43*100</f>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>6.4062500000000005E-3</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>-0.77301045336273722</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
         <v>0.640625</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="0" t="n">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H44">
         <v>42</v>
       </c>
-      <c r="I44" s="0" t="n">
-        <f aca="false">H44*$C$6</f>
-        <v>0.0065625</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I44 * 100)</f>
-        <v>-0.831469612302545</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <f aca="false">I44*100</f>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>6.5624999999999998E-3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>-0.83146961230254479</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
         <v>0.65625</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="0" t="n">
+    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H45">
         <v>43</v>
       </c>
-      <c r="I45" s="0" t="n">
-        <f aca="false">H45*$C$6</f>
-        <v>0.00671875</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I45 * 100)</f>
-        <v>-0.881921264348355</v>
-      </c>
-      <c r="K45" s="0" t="n">
-        <f aca="false">I45*100</f>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>6.7187499999999999E-3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>-0.88192126434835494</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
         <v>0.671875</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="0" t="n">
+    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H46">
         <v>44</v>
       </c>
-      <c r="I46" s="0" t="n">
-        <f aca="false">H46*$C$6</f>
-        <v>0.006875</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I46 * 100)</f>
-        <v>-0.923879532511287</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <f aca="false">I46*100</f>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>6.875E-3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>-0.92387953251128652</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
         <v>0.6875</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="0" t="n">
+    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H47">
         <v>45</v>
       </c>
-      <c r="I47" s="0" t="n">
-        <f aca="false">H47*$C$6</f>
-        <v>0.00703125</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I47 * 100)</f>
-        <v>-0.956940335732209</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <f aca="false">I47*100</f>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>7.0312500000000002E-3</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>-0.95694033573220882</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
         <v>0.703125</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="0" t="n">
+    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H48">
         <v>46</v>
       </c>
-      <c r="I48" s="0" t="n">
-        <f aca="false">H48*$C$6</f>
-        <v>0.0071875</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I48 * 100)</f>
-        <v>-0.98078528040323</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <f aca="false">I48*100</f>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>7.1875000000000003E-3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>-0.98078528040323032</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
         <v>0.71875</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="0" t="n">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H49">
         <v>47</v>
       </c>
-      <c r="I49" s="0" t="n">
-        <f aca="false">H49*$C$6</f>
-        <v>0.00734375</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I49 * 100)</f>
-        <v>-0.995184726672197</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <f aca="false">I49*100</f>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>7.3437500000000005E-3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>-0.99518472667219693</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
         <v>0.734375</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="0" t="n">
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50">
         <v>48</v>
       </c>
-      <c r="I50" s="0" t="n">
-        <f aca="false">H50*$C$6</f>
-        <v>0.0075</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I50 * 100)</f>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="K50" s="0" t="n">
-        <f aca="false">I50*100</f>
+      <c r="K50">
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="0" t="n">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H51">
         <v>49</v>
       </c>
-      <c r="I51" s="0" t="n">
-        <f aca="false">H51*$C$6</f>
-        <v>0.00765625</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I51 * 100)</f>
-        <v>-0.995184726672197</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <f aca="false">I51*100</f>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>7.6562499999999999E-3</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>-0.99518472667219693</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
         <v>0.765625</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="0" t="n">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H52">
         <v>50</v>
       </c>
-      <c r="I52" s="0" t="n">
-        <f aca="false">H52*$C$6</f>
-        <v>0.0078125</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I52 * 100)</f>
-        <v>-0.98078528040323</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <f aca="false">I52*100</f>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>-0.98078528040323043</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
         <v>0.78125</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="0" t="n">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H53">
         <v>51</v>
       </c>
-      <c r="I53" s="0" t="n">
-        <f aca="false">H53*$C$6</f>
-        <v>0.00796875</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I53 * 100)</f>
-        <v>-0.956940335732209</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <f aca="false">I53*100</f>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>7.9687500000000001E-3</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>-0.95694033573220894</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
         <v>0.796875</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="0" t="n">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H54">
         <v>52</v>
       </c>
-      <c r="I54" s="0" t="n">
-        <f aca="false">H54*$C$6</f>
-        <v>0.008125</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I54 * 100)</f>
-        <v>-0.923879532511287</v>
-      </c>
-      <c r="K54" s="0" t="n">
-        <f aca="false">I54*100</f>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>8.1250000000000003E-3</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>-0.92387953251128663</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
         <v>0.8125</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="0" t="n">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H55">
         <v>53</v>
       </c>
-      <c r="I55" s="0" t="n">
-        <f aca="false">H55*$C$6</f>
-        <v>0.00828125</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I55 * 100)</f>
-        <v>-0.881921264348355</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <f aca="false">I55*100</f>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>8.2812500000000004E-3</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>-0.88192126434835505</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
         <v>0.828125</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="0" t="n">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H56">
         <v>54</v>
       </c>
-      <c r="I56" s="0" t="n">
-        <f aca="false">H56*$C$6</f>
-        <v>0.0084375</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I56 * 100)</f>
-        <v>-0.831469612302545</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <f aca="false">I56*100</f>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>8.4375000000000006E-3</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>-0.83146961230254501</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
         <v>0.84375</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="0" t="n">
+    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H57">
         <v>55</v>
       </c>
-      <c r="I57" s="0" t="n">
-        <f aca="false">H57*$C$6</f>
-        <v>0.00859375</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I57 * 100)</f>
-        <v>-0.773010453362737</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <f aca="false">I57*100</f>
-        <v>0.859375</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="0" t="n">
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>8.5937500000000007E-3</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>-0.77301045336273688</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>0.85937500000000011</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H58">
         <v>56</v>
       </c>
-      <c r="I58" s="0" t="n">
-        <f aca="false">H58*$C$6</f>
-        <v>0.00875</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I58 * 100)</f>
-        <v>-0.707106781186547</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <f aca="false">I58*100</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="0" t="n">
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>-0.70710678118654702</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>0.87500000000000011</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H59">
         <v>57</v>
       </c>
-      <c r="I59" s="0" t="n">
-        <f aca="false">H59*$C$6</f>
-        <v>0.00890625</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I59 * 100)</f>
-        <v>-0.634393284163645</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <f aca="false">I59*100</f>
-        <v>0.890625</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="0" t="n">
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>8.906250000000001E-3</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>-0.63439328416364527</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>0.89062500000000011</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H60">
         <v>58</v>
       </c>
-      <c r="I60" s="0" t="n">
-        <f aca="false">H60*$C$6</f>
-        <v>0.0090625</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I60 * 100)</f>
-        <v>-0.555570233019603</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <f aca="false">I60*100</f>
-        <v>0.90625</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="0" t="n">
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>9.0624999999999994E-3</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>-0.55557023301960295</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>0.90624999999999989</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H61">
         <v>59</v>
       </c>
-      <c r="I61" s="0" t="n">
-        <f aca="false">H61*$C$6</f>
-        <v>0.00921875</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I61 * 100)</f>
-        <v>-0.471396736825998</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <f aca="false">I61*100</f>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>9.2187499999999995E-3</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>-0.47139673682599792</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
         <v>0.921875</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="0" t="n">
+    <row r="62" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H62">
         <v>60</v>
       </c>
-      <c r="I62" s="0" t="n">
-        <f aca="false">H62*$C$6</f>
-        <v>0.009375</v>
-      </c>
-      <c r="J62" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I62 * 100)</f>
-        <v>-0.38268343236509</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <f aca="false">I62*100</f>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>-0.38268343236509039</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="0" t="n">
+    <row r="63" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H63">
         <v>61</v>
       </c>
-      <c r="I63" s="0" t="n">
-        <f aca="false">H63*$C$6</f>
-        <v>0.00953125</v>
-      </c>
-      <c r="J63" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I63 * 100)</f>
-        <v>-0.290284677254463</v>
-      </c>
-      <c r="K63" s="0" t="n">
-        <f aca="false">I63*100</f>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>9.5312499999999998E-3</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>-0.2902846772544625</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
         <v>0.953125</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="0" t="n">
+    <row r="64" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H64">
         <v>62</v>
       </c>
-      <c r="I64" s="0" t="n">
-        <f aca="false">H64*$C$6</f>
-        <v>0.0096875</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I64 * 100)</f>
-        <v>-0.195090322016128</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <f aca="false">I64*100</f>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>9.6874999999999999E-3</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>-0.19509032201612786</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
         <v>0.96875</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="0" t="n">
+    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H65">
         <v>63</v>
       </c>
-      <c r="I65" s="0" t="n">
-        <f aca="false">H65*$C$6</f>
-        <v>0.00984375</v>
-      </c>
-      <c r="J65" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I65 * 100)</f>
-        <v>-0.0980171403295614</v>
-      </c>
-      <c r="K65" s="0" t="n">
-        <f aca="false">I65*100</f>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>9.8437500000000001E-3</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>-9.8017140329561395E-2</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
         <v>0.984375</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="0" t="n">
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H66">
         <v>64</v>
       </c>
-      <c r="I66" s="0" t="n">
-        <f aca="false">H66*$C$6</f>
+      <c r="I66">
+        <f t="shared" ref="I66:I97" si="6">H66*$C$6</f>
         <v>0.01</v>
       </c>
-      <c r="J66" s="0" t="n">
-        <f aca="false">SIN(2*PI()*I66 * 100)</f>
-        <v>6.43249059870655E-016</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <f aca="false">I66*100</f>
+      <c r="J66">
+        <f t="shared" ref="J66:J97" si="7">SIN(2*PI()*I66 * 100)</f>
+        <v>6.4314872871840123E-16</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.42"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
@@ -4689,403 +5002,396 @@
       <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9" t="n">
-        <f aca="false">PI()</f>
-        <v>3.14159265358979</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="F1" s="9">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">A2/16</f>
+      <c r="B2">
+        <f t="shared" ref="B2:B18" si="0">A2/16</f>
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B2)</f>
+      <c r="C2">
+        <f t="shared" ref="C2:C18" si="1">SIN(2*PI()*B2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B2+$F$1)</f>
-        <v>1.22464679914735E-016</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="D2">
+        <f t="shared" ref="D2:D18" si="2">SIN(2*PI()*B2+$F$1)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">A3/16</f>
-        <v>0.0625</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B3)</f>
-        <v>0.38268343236509</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B3+$F$1)</f>
-        <v>-0.38268343236509</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508978</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="2"/>
+        <v>-0.38268343236508967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">A4/16</f>
+      <c r="B4">
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B4)</f>
-        <v>0.707106781186548</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B4+$F$1)</f>
-        <v>-0.707106781186548</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>-0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">A5/16</f>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B5)</f>
-        <v>0.923879532511287</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B5+$F$1)</f>
-        <v>-0.923879532511287</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>-0.92387953251128652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">A6/16</f>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B6)</f>
+      <c r="C6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B6+$F$1)</f>
+      <c r="D6">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">A7/16</f>
+      <c r="B7">
+        <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B7)</f>
-        <v>0.923879532511287</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B7+$F$1)</f>
-        <v>-0.923879532511287</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.92387953251128674</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>-0.92387953251128663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">A8/16</f>
+      <c r="B8">
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B8)</f>
-        <v>0.707106781186548</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B8+$F$1)</f>
-        <v>-0.707106781186548</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>-0.70710678118654768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">A9/16</f>
+      <c r="B9">
+        <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B9)</f>
-        <v>0.38268343236509</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B9+$F$1)</f>
-        <v>-0.38268343236509</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.38268343236508989</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-0.38268343236509039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">A10/16</f>
+      <c r="B10">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B10)</f>
-        <v>1.22464679914735E-016</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B10+$F$1)</f>
-        <v>-2.44929359829471E-016</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">A11/16</f>
+      <c r="B11">
+        <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B11)</f>
-        <v>-0.38268343236509</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B11+$F$1)</f>
-        <v>0.38268343236509</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-0.38268343236508967</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.38268343236508995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <f aca="false">A12/16</f>
+      <c r="B12">
+        <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B12)</f>
-        <v>-0.707106781186548</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B12+$F$1)</f>
-        <v>0.707106781186547</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <f aca="false">A13/16</f>
+      <c r="B13">
+        <f t="shared" si="0"/>
         <v>0.6875</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B13)</f>
-        <v>-0.923879532511287</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B13+$F$1)</f>
-        <v>0.923879532511287</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-0.92387953251128652</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.92387953251128652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <f aca="false">A14/16</f>
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B14)</f>
+      <c r="C14">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B14+$F$1)</f>
+      <c r="D14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <f aca="false">A15/16</f>
+      <c r="B15">
+        <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B15)</f>
-        <v>-0.923879532511287</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B15+$F$1)</f>
-        <v>0.923879532511287</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>-0.92387953251128663</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.92387953251128674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <f aca="false">A16/16</f>
+      <c r="B16">
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B16)</f>
-        <v>-0.707106781186548</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B16+$F$1)</f>
-        <v>0.707106781186548</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.70710678118654835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <f aca="false">A17/16</f>
+      <c r="B17">
+        <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B17)</f>
-        <v>-0.38268343236509</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B17+$F$1)</f>
-        <v>0.382683432365091</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>-0.38268343236509039</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.3826834323650905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <f aca="false">A18/16</f>
+      <c r="B18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B18)</f>
-        <v>-2.44929359829471E-016</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">SIN(2*PI()*B18+$F$1)</f>
-        <v>3.67394039744206E-016</v>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>3.67544536472586E-16</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.15"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="10">
         <v>500000</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>96</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">(1/C2)*C3</f>
-        <v>0.000192</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4">
+        <f>(1/C2)*C3</f>
+        <v>1.92E-4</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.67"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
